--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\June_2025_8AM\AutomationTraining\MavenProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4DEF8-75DA-4AB0-8966-B0ABD1D25900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9E3808-524A-466D-8E89-C8AACC662589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33645" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase3" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -79,13 +81,34 @@
   </si>
   <si>
     <t>SecurityCode5</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>user@gmail.com</t>
+  </si>
+  <si>
+    <t>SecurityKey</t>
+  </si>
+  <si>
+    <t>GHFDGJHF1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +126,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,14 +156,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -494,4 +528,98 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A332988-27F4-4771-AD3A-F29B49126441}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E06B4C2F-77E4-48B1-BC61-904C9D0AE424}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CE39E730-3571-45EB-ACC3-C5558476855C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A57B00-AB36-499A-8C43-8BD4D494B2C7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EAF07DC6-3BAE-4D15-8263-B5EFC83078BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>